--- a/exercises_table.xlsx
+++ b/exercises_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaels\יעל פרוייקט גמר\zedcheck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE64702D-A62D-4406-9EAE-B768639B2957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3B8995-2892-4546-AF88-DDA8936703C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{472524FE-045A-460C-9A16-6FBBF7EAEB59}"/>
   </bookViews>
@@ -480,7 +480,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -502,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">

--- a/exercises_table.xlsx
+++ b/exercises_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaels\יעל פרוייקט גמר\zedcheck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3B8995-2892-4546-AF88-DDA8936703C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1969926C-6633-4BC8-9FB0-ADB17BC5D254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{472524FE-045A-460C-9A16-6FBBF7EAEB59}"/>
   </bookViews>
@@ -59,15 +59,6 @@
     <t>open_arms_above_head_ball</t>
   </si>
   <si>
-    <t>open_arms_with_rubber_band</t>
-  </si>
-  <si>
-    <t>open_arms_and_up_with_rubber_band</t>
-  </si>
-  <si>
-    <t>up_with_rubber_band_and_lean_both_sides</t>
-  </si>
-  <si>
     <t>bend_elbows_stick</t>
   </si>
   <si>
@@ -89,7 +80,16 @@
     <t>left_hand_up_and_bend_notool</t>
   </si>
   <si>
-    <t>raising_right_and_left_hand_alternately_notool</t>
+    <t>open_arms_with_band</t>
+  </si>
+  <si>
+    <t>open_arms_and_up_with_band</t>
+  </si>
+  <si>
+    <t>up_with_band_and_lean</t>
+  </si>
+  <si>
+    <t>raising_hands_diagonally_notool</t>
   </si>
 </sst>
 </file>
@@ -480,7 +480,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -509,91 +509,121 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/exercises_table.xlsx
+++ b/exercises_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaels\יעל פרוייקט גמר\zedcheck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1969926C-6633-4BC8-9FB0-ADB17BC5D254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D856D9-6282-4133-B3D7-7D540EA7E762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{472524FE-045A-460C-9A16-6FBBF7EAEB59}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>exercise</t>
   </si>
@@ -44,52 +44,55 @@
     <t>number of angles</t>
   </si>
   <si>
-    <t>bend_elbows_ball</t>
-  </si>
-  <si>
-    <t>raise_arms_above_head_ball</t>
-  </si>
-  <si>
-    <t>raise_arms_forward_turn_ball</t>
-  </si>
-  <si>
-    <t>open_arms_and_forward_ball</t>
-  </si>
-  <si>
-    <t>open_arms_above_head_ball</t>
-  </si>
-  <si>
-    <t>bend_elbows_stick</t>
-  </si>
-  <si>
-    <t>bend_elbows_and_up_stick</t>
-  </si>
-  <si>
-    <t>arms_up_and_down_stick</t>
-  </si>
-  <si>
-    <t>switch_with_stick</t>
-  </si>
-  <si>
-    <t>hands_behind_and_lean_notool</t>
-  </si>
-  <si>
-    <t>right_hand_up_and_bend_notool</t>
-  </si>
-  <si>
-    <t>left_hand_up_and_bend_notool</t>
-  </si>
-  <si>
-    <t>open_arms_with_band</t>
-  </si>
-  <si>
-    <t>open_arms_and_up_with_band</t>
-  </si>
-  <si>
-    <t>up_with_band_and_lean</t>
-  </si>
-  <si>
-    <t>raising_hands_diagonally_notool</t>
+    <t>ball_bend_elbows</t>
+  </si>
+  <si>
+    <t>ball_raise_arms_above_head</t>
+  </si>
+  <si>
+    <t>ball_switch</t>
+  </si>
+  <si>
+    <t>ball_open_arms_and_forward</t>
+  </si>
+  <si>
+    <t>ball_open_arms_above_head</t>
+  </si>
+  <si>
+    <t>band_open_arms</t>
+  </si>
+  <si>
+    <t>band_open_arms_and_up</t>
+  </si>
+  <si>
+    <t>band_up_and_lean</t>
+  </si>
+  <si>
+    <t>stick_bend_elbows</t>
+  </si>
+  <si>
+    <t>stick_bend_elbows_and_up</t>
+  </si>
+  <si>
+    <t>stick_raise_arms_above_head</t>
+  </si>
+  <si>
+    <t>stick_switch</t>
+  </si>
+  <si>
+    <t>notool_hands_behind_and_lean</t>
+  </si>
+  <si>
+    <t>notool_right_hand_up_and_bend</t>
+  </si>
+  <si>
+    <t>notool_left_hand_up_and_bend</t>
+  </si>
+  <si>
+    <t>notool_raising_hands_diagonally</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -181,9 +184,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -221,7 +224,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -327,7 +330,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -469,7 +472,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -477,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4D49FE-C7D6-4681-8913-AF55852CB934}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -526,7 +529,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -539,7 +542,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
@@ -547,7 +550,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -555,7 +558,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -563,7 +566,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
@@ -571,7 +574,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
@@ -579,7 +582,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
@@ -587,7 +590,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
@@ -595,7 +598,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
@@ -603,7 +606,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -611,13 +614,13 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -625,7 +628,13 @@
         <v>2</v>
       </c>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/exercises_table.xlsx
+++ b/exercises_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaels\יעל פרוייקט גמר\zedcheck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D856D9-6282-4133-B3D7-7D540EA7E762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E63511D-C9BB-4C24-857D-457FAD6E9A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{472524FE-045A-460C-9A16-6FBBF7EAEB59}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>exercise</t>
   </si>
@@ -93,13 +93,40 @@
   </si>
   <si>
     <t>`</t>
+  </si>
+  <si>
+    <t>ball_hands_up_and_bend_backwards</t>
+  </si>
+  <si>
+    <t>stick_bending_forward</t>
+  </si>
+  <si>
+    <t>weights_right_hand_up_and_bend</t>
+  </si>
+  <si>
+    <t>weights_left_hand_up_and_bend</t>
+  </si>
+  <si>
+    <t>weights_raising_hands_diagonally</t>
+  </si>
+  <si>
+    <t>weights_bending_forward</t>
+  </si>
+  <si>
+    <t>2a</t>
+  </si>
+  <si>
+    <t>3a</t>
+  </si>
+  <si>
+    <t>1a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +141,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -131,7 +165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -154,16 +188,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -480,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4D49FE-C7D6-4681-8913-AF55852CB934}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -504,136 +555,183 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>2</v>
+      <c r="B2" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>2</v>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
-        <v>2</v>
+      <c r="B4" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
-        <v>2</v>
+      <c r="B5" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
-        <v>2</v>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
-        <v>2</v>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
-        <v>3</v>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
-        <v>2</v>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
-        <v>2</v>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1">
-        <v>2</v>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1">
-        <v>2</v>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1">
-        <v>2</v>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1">
-        <v>2</v>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1">
-        <v>1</v>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1">
-        <v>1</v>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1">
-        <v>2</v>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F18" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/exercises_table.xlsx
+++ b/exercises_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaels\יעל פרוייקט גמר\zedcheck\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\Gymmy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E63511D-C9BB-4C24-857D-457FAD6E9A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64834CC8-5A64-431A-999A-A47A9DFF774C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{472524FE-045A-460C-9A16-6FBBF7EAEB59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{472524FE-045A-460C-9A16-6FBBF7EAEB59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>exercise</t>
   </si>
@@ -113,24 +111,21 @@
     <t>weights_bending_forward</t>
   </si>
   <si>
-    <t>2a</t>
-  </si>
-  <si>
-    <t>3a</t>
-  </si>
-  <si>
-    <t>1a</t>
+    <t>weights_open_arms_and_forward</t>
+  </si>
+  <si>
+    <t>weights_open_arms_above_head</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -139,16 +134,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF56A8F5"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -203,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -211,10 +212,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -235,9 +242,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -275,7 +282,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -381,7 +388,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -523,7 +530,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -531,19 +538,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4D49FE-C7D6-4681-8913-AF55852CB934}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -551,183 +558,199 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>25</v>
+      <c r="B18" s="3">
+        <v>2</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="5" t="s">
         <v>25</v>
+      </c>
+      <c r="B24" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/exercises_table.xlsx
+++ b/exercises_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\Gymmy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64834CC8-5A64-431A-999A-A47A9DFF774C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AF5A26-9EC5-424B-8135-2BF74560F7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{472524FE-045A-460C-9A16-6FBBF7EAEB59}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>exercise</t>
   </si>
@@ -93,9 +93,6 @@
     <t>`</t>
   </si>
   <si>
-    <t>ball_hands_up_and_bend_backwards</t>
-  </si>
-  <si>
     <t>stick_bending_forward</t>
   </si>
   <si>
@@ -105,23 +102,29 @@
     <t>weights_left_hand_up_and_bend</t>
   </si>
   <si>
-    <t>weights_raising_hands_diagonally</t>
-  </si>
-  <si>
-    <t>weights_bending_forward</t>
-  </si>
-  <si>
     <t>weights_open_arms_and_forward</t>
   </si>
   <si>
     <t>weights_open_arms_above_head</t>
+  </si>
+  <si>
+    <t>band_bend_elbows_to_sides_and_straighten_left</t>
+  </si>
+  <si>
+    <t>band_bend_elbows_to_sides_and_straighten_right</t>
+  </si>
+  <si>
+    <t>weights_right_hand_up_left_hand_up_to_side</t>
+  </si>
+  <si>
+    <t>weights_left_hand_up_right_hand_up_to_side</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,14 +148,8 @@
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF56A8F5"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,8 +162,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -189,22 +198,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -215,13 +213,10 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -538,19 +533,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4D49FE-C7D6-4681-8913-AF55852CB934}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -558,119 +553,119 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -678,7 +673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -686,8 +681,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="3">
@@ -697,15 +692,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -713,43 +708,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="5" t="s">
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1">
         <v>2</v>
       </c>
     </row>

--- a/exercises_table.xlsx
+++ b/exercises_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\Gymmy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AF5A26-9EC5-424B-8135-2BF74560F7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CCA5FA-1C9B-4331-8C51-33D6FCE174BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{472524FE-045A-460C-9A16-6FBBF7EAEB59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{472524FE-045A-460C-9A16-6FBBF7EAEB59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>exercise</t>
   </si>
@@ -90,12 +90,6 @@
     <t>notool_raising_hands_diagonally</t>
   </si>
   <si>
-    <t>`</t>
-  </si>
-  <si>
-    <t>stick_bending_forward</t>
-  </si>
-  <si>
     <t>weights_right_hand_up_and_bend</t>
   </si>
   <si>
@@ -105,19 +99,88 @@
     <t>weights_open_arms_and_forward</t>
   </si>
   <si>
-    <t>weights_open_arms_above_head</t>
-  </si>
-  <si>
-    <t>band_bend_elbows_to_sides_and_straighten_left</t>
-  </si>
-  <si>
-    <t>band_bend_elbows_to_sides_and_straighten_right</t>
-  </si>
-  <si>
-    <t>weights_right_hand_up_left_hand_up_to_side</t>
-  </si>
-  <si>
-    <t>weights_left_hand_up_right_hand_up_to_side</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>כיפוף מרפקים</t>
+  </si>
+  <si>
+    <t>הרמת ידיים מעלה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">רוטציית גו </t>
+  </si>
+  <si>
+    <t>העברת כדור מעל הראש</t>
+  </si>
+  <si>
+    <t>הרמת ידיים ישרות</t>
+  </si>
+  <si>
+    <t>יישור מרפקים מעלה</t>
+  </si>
+  <si>
+    <t>HOR ABD</t>
+  </si>
+  <si>
+    <t>הרמת גומייה</t>
+  </si>
+  <si>
+    <t>הטיית גו צידית</t>
+  </si>
+  <si>
+    <t>הטיית גו צידית, ידיים מאחורי העורף</t>
+  </si>
+  <si>
+    <t>הטיית גו צידית ימין</t>
+  </si>
+  <si>
+    <t>הטיית גו צידית שמאל</t>
+  </si>
+  <si>
+    <t>רוטצייה והארכת גו</t>
+  </si>
+  <si>
+    <t>weights_abduction</t>
+  </si>
+  <si>
+    <t>stick_up_and_lean</t>
+  </si>
+  <si>
+    <t>band_straighten_left_arm_elbows_bend_to_sides</t>
+  </si>
+  <si>
+    <t>band_straighten_right_arm_elbows_bend_to_sides</t>
+  </si>
+  <si>
+    <t>notool_right_bend_left_up_from_side</t>
+  </si>
+  <si>
+    <t>notool_left_bend_right_up_from_side</t>
+  </si>
+  <si>
+    <t>exercise number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  (HOR ABD) העברת כדור מיד ליד</t>
+  </si>
+  <si>
+    <t>כתף ABD -יישור מרפק שמאל ב</t>
+  </si>
+  <si>
+    <t>כתף ABD -יישור מרפק ימין ב</t>
+  </si>
+  <si>
+    <t>קואורדינציית מרפק וכתף  (כיפוף ימין)</t>
+  </si>
+  <si>
+    <t>קואורדינציית מרפק וכתף  (כיפוף שמאל)</t>
+  </si>
+  <si>
+    <t>(HOR ABD) העברת משקולת מיד ליד</t>
+  </si>
+  <si>
+    <t>כתף ABD</t>
   </si>
 </sst>
 </file>
@@ -149,7 +212,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,12 +228,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -202,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -214,9 +271,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -533,227 +587,382 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4D49FE-C7D6-4681-8913-AF55852CB934}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3">
+      <c r="C8" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="D8" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B10" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="B11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B11" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B12" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B13" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B14" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="D17" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3">
+      <c r="C23" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="D23" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="3">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B23" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B24" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="1">
-        <v>2</v>
+      <c r="B26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/exercises_table.xlsx
+++ b/exercises_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\Gymmy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CCA5FA-1C9B-4331-8C51-33D6FCE174BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5876E94C-CA23-4AEE-A156-206F3980790E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{472524FE-045A-460C-9A16-6FBBF7EAEB59}"/>
   </bookViews>
@@ -162,9 +162,6 @@
     <t>exercise number</t>
   </si>
   <si>
-    <t xml:space="preserve">  (HOR ABD) העברת כדור מיד ליד</t>
-  </si>
-  <si>
     <t>כתף ABD -יישור מרפק שמאל ב</t>
   </si>
   <si>
@@ -181,6 +178,9 @@
   </si>
   <si>
     <t>כתף ABD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(HOR ABD) העברת כדור מיד ליד </t>
   </si>
 </sst>
 </file>
@@ -590,7 +590,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +668,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -738,7 +738,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -752,7 +752,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -864,7 +864,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -878,7 +878,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -948,7 +948,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -962,7 +962,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/exercises_table.xlsx
+++ b/exercises_table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\Gymmy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Gymmy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5876E94C-CA23-4AEE-A156-206F3980790E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D72402-7E05-4478-819D-752C2D5B1714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{472524FE-045A-460C-9A16-6FBBF7EAEB59}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
   <si>
     <t>exercise</t>
   </si>
@@ -181,6 +181,27 @@
   </si>
   <si>
     <t xml:space="preserve">(HOR ABD) העברת כדור מיד ליד </t>
+  </si>
+  <si>
+    <t>כדור</t>
+  </si>
+  <si>
+    <t>גומיית התנגדות</t>
+  </si>
+  <si>
+    <t>מקל/ בר</t>
+  </si>
+  <si>
+    <t>משקולות</t>
+  </si>
+  <si>
+    <t>ללא אביזר</t>
+  </si>
+  <si>
+    <t>equipment</t>
+  </si>
+  <si>
+    <t>counts after one or two repetitions</t>
   </si>
 </sst>
 </file>
@@ -232,7 +253,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -255,11 +276,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -271,6 +303,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -587,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4D49FE-C7D6-4681-8913-AF55852CB934}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,9 +634,11 @@
     <col min="2" max="2" width="53.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
@@ -614,8 +651,14 @@
       <c r="D1" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -628,8 +671,14 @@
       <c r="D2" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -642,8 +691,14 @@
       <c r="D3" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -656,8 +711,14 @@
       <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -670,8 +731,14 @@
       <c r="D5" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -684,8 +751,14 @@
       <c r="D6" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -698,8 +771,14 @@
       <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -712,8 +791,14 @@
       <c r="D8" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -726,8 +811,14 @@
       <c r="D9" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -740,8 +831,14 @@
       <c r="D10" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -754,8 +851,14 @@
       <c r="D11" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -768,8 +871,14 @@
       <c r="D12" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -782,8 +891,14 @@
       <c r="D13" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -796,8 +911,14 @@
       <c r="D14" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -810,8 +931,14 @@
       <c r="D15" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -824,8 +951,14 @@
       <c r="D16" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -833,13 +966,19 @@
         <v>18</v>
       </c>
       <c r="C17" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -847,13 +986,19 @@
         <v>19</v>
       </c>
       <c r="C18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -866,8 +1011,14 @@
       <c r="D19" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -880,8 +1031,14 @@
       <c r="D20" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -894,8 +1051,14 @@
       <c r="D21" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -903,13 +1066,19 @@
         <v>15</v>
       </c>
       <c r="C22" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -917,13 +1086,19 @@
         <v>16</v>
       </c>
       <c r="C23" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -936,8 +1111,14 @@
       <c r="D24" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -950,8 +1131,14 @@
       <c r="D25" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -963,6 +1150,12 @@
       </c>
       <c r="D26" s="3" t="s">
         <v>45</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/exercises_table.xlsx
+++ b/exercises_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Gymmy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D72402-7E05-4478-819D-752C2D5B1714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA4695D-4456-41FF-A780-F5602600055C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{472524FE-045A-460C-9A16-6FBBF7EAEB59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{472524FE-045A-460C-9A16-6FBBF7EAEB59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -162,12 +162,6 @@
     <t>exercise number</t>
   </si>
   <si>
-    <t>כתף ABD -יישור מרפק שמאל ב</t>
-  </si>
-  <si>
-    <t>כתף ABD -יישור מרפק ימין ב</t>
-  </si>
-  <si>
     <t>קואורדינציית מרפק וכתף  (כיפוף ימין)</t>
   </si>
   <si>
@@ -202,6 +196,12 @@
   </si>
   <si>
     <t>counts after one or two repetitions</t>
+  </si>
+  <si>
+    <t>כתף  ABD -יישור מרפק שמאל ב</t>
+  </si>
+  <si>
+    <t>כתף  ABD -יישור מרפק ימין ב</t>
   </si>
 </sst>
 </file>
@@ -625,7 +625,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D2" sqref="D2:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,7 +634,7 @@
     <col min="2" max="2" width="53.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -652,10 +652,10 @@
         <v>21</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -672,7 +672,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -692,7 +692,7 @@
         <v>23</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
@@ -712,7 +712,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F4" s="3">
         <v>2</v>
@@ -729,10 +729,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -752,7 +752,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -772,7 +772,7 @@
         <v>28</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
@@ -792,7 +792,7 @@
         <v>29</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -812,7 +812,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F9" s="3">
         <v>2</v>
@@ -829,10 +829,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -849,10 +849,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -872,7 +872,7 @@
         <v>22</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -892,7 +892,7 @@
         <v>26</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
@@ -912,7 +912,7 @@
         <v>24</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -932,7 +932,7 @@
         <v>27</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F15" s="3">
         <v>2</v>
@@ -952,7 +952,7 @@
         <v>30</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F16" s="3">
         <v>2</v>
@@ -972,7 +972,7 @@
         <v>32</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F17" s="3">
         <v>1</v>
@@ -992,7 +992,7 @@
         <v>33</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F18" s="3">
         <v>1</v>
@@ -1009,10 +1009,10 @@
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F19" s="3">
         <v>1</v>
@@ -1029,10 +1029,10 @@
         <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
@@ -1052,7 +1052,7 @@
         <v>31</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F21" s="3">
         <v>2</v>
@@ -1072,7 +1072,7 @@
         <v>32</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
@@ -1092,7 +1092,7 @@
         <v>33</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F23" s="3">
         <v>1</v>
@@ -1112,7 +1112,7 @@
         <v>34</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F24" s="3">
         <v>2</v>
@@ -1129,10 +1129,10 @@
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F25" s="3">
         <v>1</v>
@@ -1149,10 +1149,10 @@
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>

--- a/exercises_table.xlsx
+++ b/exercises_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Gymmy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA4695D-4456-41FF-A780-F5602600055C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA7C452-2022-4C0C-A233-5E24F2DB71BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{472524FE-045A-460C-9A16-6FBBF7EAEB59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{472524FE-045A-460C-9A16-6FBBF7EAEB59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -233,7 +233,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,6 +249,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -308,6 +314,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4D49FE-C7D6-4681-8913-AF55852CB934}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D26"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,7 +792,7 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3">
@@ -882,7 +892,7 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="3">
@@ -902,7 +912,7 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="3">
@@ -922,7 +932,7 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="3">
@@ -942,7 +952,7 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="3">
@@ -962,7 +972,7 @@
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="3">
@@ -982,7 +992,7 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="3">
@@ -1002,7 +1012,7 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="1">
@@ -1022,7 +1032,7 @@
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="3">
@@ -1042,7 +1052,7 @@
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="3">
@@ -1062,7 +1072,7 @@
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="3">
@@ -1082,7 +1092,7 @@
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="3">
@@ -1102,7 +1112,7 @@
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="3">
@@ -1122,7 +1132,7 @@
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="1">
@@ -1142,7 +1152,7 @@
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="1">
@@ -1157,6 +1167,9 @@
       <c r="F26" s="3">
         <v>1</v>
       </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/exercises_table.xlsx
+++ b/exercises_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Gymmy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA7C452-2022-4C0C-A233-5E24F2DB71BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA2073E-FF2E-479F-B432-B7549BD1C7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{472524FE-045A-460C-9A16-6FBBF7EAEB59}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
   <si>
     <t>exercise</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>כתף  ABD -יישור מרפק ימין ב</t>
+  </si>
+  <si>
+    <t>לבדוק שכל השלשות מפרקים מופיעות בהערות</t>
   </si>
 </sst>
 </file>
@@ -233,7 +236,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,6 +258,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -318,6 +327,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4D49FE-C7D6-4681-8913-AF55852CB934}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,7 +660,7 @@
     <col min="6" max="6" width="32.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
@@ -668,7 +680,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -688,7 +700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -708,7 +720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -728,7 +740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -736,7 +748,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>46</v>
@@ -748,7 +760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -768,7 +780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -788,7 +800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -808,7 +820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -828,7 +840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -848,7 +860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -868,7 +880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -888,11 +900,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="3">
@@ -908,11 +920,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="3">
@@ -928,11 +940,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="3">
@@ -947,12 +959,15 @@
       <c r="F15" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="3">
@@ -972,7 +987,7 @@
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="3">
@@ -992,7 +1007,7 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="3">
@@ -1012,7 +1027,7 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="1">
@@ -1032,7 +1047,7 @@
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="3">

--- a/exercises_table.xlsx
+++ b/exercises_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Gymmy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA2073E-FF2E-479F-B432-B7549BD1C7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E700A09-CFB5-46CC-838D-4F363B9BA084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{472524FE-045A-460C-9A16-6FBBF7EAEB59}"/>
+    <workbookView xWindow="2820" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{472524FE-045A-460C-9A16-6FBBF7EAEB59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -647,7 +647,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,7 +788,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>28</v>
@@ -804,7 +804,7 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3">
@@ -924,7 +924,7 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="3">
@@ -944,7 +944,7 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="3">
@@ -967,7 +967,7 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="3">
@@ -1027,11 +1027,11 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>44</v>
@@ -1047,7 +1047,7 @@
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="3">

--- a/exercises_table.xlsx
+++ b/exercises_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Gymmy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E700A09-CFB5-46CC-838D-4F363B9BA084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A98FE1-661D-4660-AA36-16E4C3BFD8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{472524FE-045A-460C-9A16-6FBBF7EAEB59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{472524FE-045A-460C-9A16-6FBBF7EAEB59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
   <si>
     <t>exercise</t>
   </si>
@@ -54,9 +54,6 @@
     <t>ball_open_arms_and_forward</t>
   </si>
   <si>
-    <t>ball_open_arms_above_head</t>
-  </si>
-  <si>
     <t>band_open_arms</t>
   </si>
   <si>
@@ -90,12 +87,6 @@
     <t>notool_raising_hands_diagonally</t>
   </si>
   <si>
-    <t>weights_right_hand_up_and_bend</t>
-  </si>
-  <si>
-    <t>weights_left_hand_up_and_bend</t>
-  </si>
-  <si>
     <t>weights_open_arms_and_forward</t>
   </si>
   <si>
@@ -109,9 +100,6 @@
   </si>
   <si>
     <t xml:space="preserve">רוטציית גו </t>
-  </si>
-  <si>
-    <t>העברת כדור מעל הראש</t>
   </si>
   <si>
     <t>הרמת ידיים ישרות</t>
@@ -263,7 +251,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4D49FE-C7D6-4681-8913-AF55852CB934}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,7 +650,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -671,13 +659,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -691,10 +679,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -711,10 +699,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
@@ -731,10 +719,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F4" s="3">
         <v>2</v>
@@ -751,10 +739,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -768,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -791,10 +779,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
@@ -808,16 +796,16 @@
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -825,19 +813,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -845,16 +833,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -865,16 +853,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -894,7 +882,7 @@
         <v>22</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -904,17 +892,17 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
@@ -924,80 +912,80 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="3">
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F14" s="3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>13</v>
+      <c r="B15" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F15" s="3">
         <v>2</v>
-      </c>
-      <c r="J15" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="3">
-        <v>2</v>
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>18</v>
+      <c r="B17" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F17" s="3">
         <v>1</v>
@@ -1007,20 +995,20 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>19</v>
+      <c r="B18" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C18" s="3">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1028,16 +1016,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="1">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F19" s="3">
         <v>1</v>
@@ -1048,16 +1036,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
@@ -1068,16 +1056,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F21" s="3">
         <v>2</v>
@@ -1088,16 +1076,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="3">
+        <v>35</v>
+      </c>
+      <c r="C22" s="1">
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
@@ -1108,83 +1096,23 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="3">
+        <v>36</v>
+      </c>
+      <c r="C23" s="1">
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F23" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="1">
-        <v>2</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="1">
-        <v>2</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
+      <c r="B24" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/exercises_table.xlsx
+++ b/exercises_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Gymmy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A98FE1-661D-4660-AA36-16E4C3BFD8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6990BBC0-30CC-43C7-9EE2-3F3FA8CCF3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{472524FE-045A-460C-9A16-6FBBF7EAEB59}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>exercise</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>לבדוק שכל השלשות מפרקים מופיעות בהערות</t>
+  </si>
+  <si>
+    <t>תרגילים שיותר קשה לו לזהות</t>
   </si>
 </sst>
 </file>
@@ -224,7 +227,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,14 +252,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -290,11 +287,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -315,9 +321,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,7 +642,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,6 +653,7 @@
     <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -667,6 +675,9 @@
       <c r="F1" s="5" t="s">
         <v>49</v>
       </c>
+      <c r="H1" s="8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
@@ -747,6 +758,7 @@
       <c r="F5" s="3">
         <v>1</v>
       </c>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -827,6 +839,7 @@
       <c r="F9" s="3">
         <v>1</v>
       </c>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -847,6 +860,7 @@
       <c r="F10" s="3">
         <v>1</v>
       </c>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -892,7 +906,7 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="3">
@@ -912,7 +926,7 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="3">
@@ -975,7 +989,7 @@
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="3">
@@ -995,7 +1009,7 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="3">
@@ -1015,7 +1029,7 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="3">
@@ -1035,7 +1049,7 @@
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="3">
@@ -1055,7 +1069,7 @@
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="3">

--- a/exercises_table.xlsx
+++ b/exercises_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Gymmy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6990BBC0-30CC-43C7-9EE2-3F3FA8CCF3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC024CB-054E-4D32-B10E-22095EB8FDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{472524FE-045A-460C-9A16-6FBBF7EAEB59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{472524FE-045A-460C-9A16-6FBBF7EAEB59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -642,7 +642,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,7 +893,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>45</v>
@@ -913,7 +913,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>45</v>
@@ -933,7 +933,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>45</v>
